--- a/Sprint2/gantt Sprint 2.xlsx
+++ b/Sprint2/gantt Sprint 2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0E467B6-12BD-0643-8994-3E098AD5AB7F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE5F903-66C2-A242-A80C-4E71C3311666}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,30 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
-  <si>
-    <t>Task 3</t>
-  </si>
-  <si>
-    <t>Task 4</t>
-  </si>
-  <si>
-    <t>Task 5</t>
-  </si>
-  <si>
-    <t>Task 1</t>
-  </si>
-  <si>
-    <t>Task 2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
   <si>
     <t>About This Template</t>
   </si>
   <si>
     <t>Guide for Screen Readers</t>
-  </si>
-  <si>
-    <t>This is an empty row</t>
   </si>
   <si>
     <t>No. Days</t>
@@ -74,9 +56,6 @@
     <t>Start</t>
   </si>
   <si>
-    <t>Title 4</t>
-  </si>
-  <si>
     <t>Scrolling Increment:</t>
   </si>
   <si>
@@ -96,9 +75,6 @@
   </si>
   <si>
     <t>Milestone Description</t>
-  </si>
-  <si>
-    <t>To add more data, Insert new rows ABOVE this one</t>
   </si>
   <si>
     <t>Enter Company Name in cell B2.
@@ -150,10 +126,6 @@
   </si>
   <si>
     <t xml:space="preserve">Do not delete this row. This row is hidden to preserve a formula that is used to highlight the current day within the project schedule. </t>
-  </si>
-  <si>
-    <t>This row marks the end of the Gantt milestone data. DO NOT enter anything in this row. 
-To add more items, insert new rows above this one.</t>
   </si>
   <si>
     <t>There are 2 worksheets in this workbook. 
@@ -245,15 +217,6 @@
     <t>Presentation</t>
   </si>
   <si>
-    <t>Update Admins JSP for assigning a driver to demands</t>
-  </si>
-  <si>
-    <t>Update Customers JSP - for viewing invoice for journey, requesting a taxi, inputting needed details</t>
-  </si>
-  <si>
-    <t>Update Drivers JSP- for viewing job details and updating driver's status</t>
-  </si>
-  <si>
     <t>SPRINT THREE</t>
   </si>
   <si>
@@ -264,6 +227,30 @@
   </si>
   <si>
     <t>Add Google Maps</t>
+  </si>
+  <si>
+    <t>Update Customers JSPs - for viewing, requesting a taxi, inputting needed details</t>
+  </si>
+  <si>
+    <t>Send invoice to customer</t>
+  </si>
+  <si>
+    <t>Update Drivers JSP- for viewing completed jobs and vieweing there  details.</t>
+  </si>
+  <si>
+    <t>Update Admins JSPs for their view and adding new drivers</t>
+  </si>
+  <si>
+    <t>Add ability to delete a user</t>
+  </si>
+  <si>
+    <t>Changing roles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add more admin functionality </t>
+  </si>
+  <si>
+    <t>Assign a requested job to a driver</t>
   </si>
 </sst>
 </file>
@@ -824,15 +811,132 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="35">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1117,6 +1221,15 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -1261,20 +1374,20 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{4904D139-63E4-4221-B7C9-C6C5B7A50FAF}">
-      <tableStyleElement type="wholeTable" dxfId="28"/>
-      <tableStyleElement type="headerRow" dxfId="27"/>
-      <tableStyleElement type="firstRowStripe" dxfId="26"/>
+      <tableStyleElement type="wholeTable" dxfId="34"/>
+      <tableStyleElement type="headerRow" dxfId="33"/>
+      <tableStyleElement type="firstRowStripe" dxfId="32"/>
     </tableStyle>
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="25"/>
-      <tableStyleElement type="headerRow" dxfId="24"/>
-      <tableStyleElement type="totalRow" dxfId="23"/>
-      <tableStyleElement type="firstColumn" dxfId="22"/>
-      <tableStyleElement type="lastColumn" dxfId="21"/>
-      <tableStyleElement type="firstRowStripe" dxfId="20"/>
-      <tableStyleElement type="secondRowStripe" dxfId="19"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="18"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="17"/>
+      <tableStyleElement type="wholeTable" dxfId="31"/>
+      <tableStyleElement type="headerRow" dxfId="30"/>
+      <tableStyleElement type="totalRow" dxfId="29"/>
+      <tableStyleElement type="firstColumn" dxfId="28"/>
+      <tableStyleElement type="lastColumn" dxfId="27"/>
+      <tableStyleElement type="firstRowStripe" dxfId="26"/>
+      <tableStyleElement type="secondRowStripe" dxfId="25"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="24"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="23"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1437,9 +1550,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="20"/>
     <tableColumn id="4" xr3:uid="{A60A6524-18F0-48B7-BB3C-2F4A35799FF7}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{59612C1F-9AAB-483B-A6A5-3563E9D77941}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{012C59F1-49D4-4A67-B8DD-855C6581FD6A}" name="No. Days" dataCellStyle="Comma [0]"/>
@@ -1721,8 +1834,8 @@
   </sheetPr>
   <dimension ref="A1:BL43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AD25" sqref="AD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1"/>
@@ -1741,10 +1854,10 @@
   <sheetData>
     <row r="1" spans="1:64" ht="30" customHeight="1">
       <c r="A1" s="15" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="1"/>
@@ -1778,7 +1891,7 @@
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1810,12 +1923,12 @@
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1">
       <c r="A3" s="15" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B3" s="55"/>
       <c r="C3" s="19"/>
       <c r="D3" s="59" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E3" s="60"/>
       <c r="F3" s="62">
@@ -1827,10 +1940,10 @@
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1">
       <c r="A4" s="15" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D4" s="59" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E4" s="60"/>
       <c r="F4" s="45">
@@ -1919,7 +2032,7 @@
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B5" s="61"/>
       <c r="C5" s="61"/>
@@ -2155,7 +2268,7 @@
     </row>
     <row r="6" spans="1:64" s="20" customFormat="1" ht="25.25" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -2223,25 +2336,25 @@
     </row>
     <row r="7" spans="1:64" ht="31" customHeight="1" thickBot="1">
       <c r="A7" s="15" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="25" t="str">
@@ -2471,7 +2584,7 @@
     </row>
     <row r="8" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A8" s="14" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B8" s="41"/>
       <c r="C8" s="30"/>
@@ -2538,10 +2651,10 @@
     </row>
     <row r="9" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
@@ -2777,13 +2890,13 @@
     <row r="10" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A10" s="15"/>
       <c r="B10" s="41" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E10" s="31">
         <v>1</v>
@@ -3023,13 +3136,13 @@
     <row r="11" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="15"/>
       <c r="B11" s="41" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E11" s="31">
         <v>1</v>
@@ -3269,13 +3382,13 @@
     <row r="12" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A12" s="14"/>
       <c r="B12" s="41" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E12" s="31">
         <v>1</v>
@@ -3515,13 +3628,13 @@
     <row r="13" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A13" s="14"/>
       <c r="B13" s="41" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E13" s="31">
         <v>1</v>
@@ -3761,13 +3874,13 @@
     <row r="14" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A14" s="14"/>
       <c r="B14" s="41" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E14" s="31">
         <v>1</v>
@@ -4007,11 +4120,11 @@
     <row r="15" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A15" s="14"/>
       <c r="B15" s="52" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="34" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E15" s="31">
         <v>0.9</v>
@@ -4083,11 +4196,11 @@
     <row r="16" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A16" s="14"/>
       <c r="B16" s="53" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="34" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E16" s="31">
         <v>1</v>
@@ -4159,11 +4272,11 @@
     <row r="17" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A17" s="14"/>
       <c r="B17" s="52" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C17" s="34"/>
       <c r="D17" s="34" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E17" s="31">
         <v>1</v>
@@ -4235,7 +4348,7 @@
     <row r="18" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A18" s="15"/>
       <c r="B18" s="42" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
@@ -4471,16 +4584,16 @@
     <row r="19" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A19" s="15"/>
       <c r="B19" s="41" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E19" s="31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F19" s="32">
         <v>43416</v>
@@ -4717,16 +4830,16 @@
     <row r="20" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A20" s="14"/>
       <c r="B20" s="41" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E20" s="31">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F20" s="32">
         <v>43421</v>
@@ -4963,13 +5076,13 @@
     <row r="21" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="41" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E21" s="31">
         <v>0.5</v>
@@ -5206,16 +5319,16 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1">
+    <row r="22" spans="1:64" s="2" customFormat="1" ht="41" customHeight="1">
       <c r="A22" s="14"/>
       <c r="B22" s="41" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E22" s="31">
         <v>1</v>
@@ -5452,14 +5565,14 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1">
+    <row r="23" spans="1:64" s="2" customFormat="1" ht="72" customHeight="1">
       <c r="A23" s="14"/>
       <c r="B23" s="41" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C23" s="34"/>
       <c r="D23" s="34" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E23" s="31">
         <v>1</v>
@@ -5699,14 +5812,14 @@
     <row r="24" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A24" s="14"/>
       <c r="B24" s="52" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C24" s="34"/>
       <c r="D24" s="34" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E24" s="31">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F24" s="32">
         <v>43427</v>
@@ -5772,17 +5885,17 @@
       <c r="BK24" s="38"/>
       <c r="BL24" s="38"/>
     </row>
-    <row r="25" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1">
+    <row r="25" spans="1:64" s="2" customFormat="1" ht="78" customHeight="1">
       <c r="A25" s="14"/>
       <c r="B25" s="52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" s="34"/>
       <c r="D25" s="34" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E25" s="31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F25" s="32">
         <v>43416</v>
@@ -5848,17 +5961,17 @@
       <c r="BK25" s="38"/>
       <c r="BL25" s="38"/>
     </row>
-    <row r="26" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1">
+    <row r="26" spans="1:64" s="2" customFormat="1" ht="89" customHeight="1">
       <c r="A26" s="14"/>
       <c r="B26" s="52" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C26" s="34"/>
       <c r="D26" s="34" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E26" s="31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F26" s="32">
         <v>43416</v>
@@ -5924,17 +6037,17 @@
       <c r="BK26" s="38"/>
       <c r="BL26" s="38"/>
     </row>
-    <row r="27" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1">
+    <row r="27" spans="1:64" s="2" customFormat="1" ht="90" customHeight="1">
       <c r="A27" s="14"/>
       <c r="B27" s="52" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C27" s="34"/>
       <c r="D27" s="34" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E27" s="31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F27" s="32">
         <v>43416</v>
@@ -6002,14 +6115,22 @@
     </row>
     <row r="28" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A28" s="14"/>
-      <c r="B28" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="34"/>
+      <c r="B28" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>13</v>
+      </c>
       <c r="D28" s="34"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="33"/>
+      <c r="E28" s="31">
+        <v>1</v>
+      </c>
+      <c r="F28" s="32">
+        <v>43416</v>
+      </c>
+      <c r="G28" s="33">
+        <v>5</v>
+      </c>
       <c r="H28" s="26"/>
       <c r="I28" s="38" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -6238,22 +6359,14 @@
     </row>
     <row r="29" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A29" s="14"/>
-      <c r="B29" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>20</v>
-      </c>
+      <c r="B29" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="34"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="31">
-        <v>0</v>
-      </c>
-      <c r="F29" s="32">
-        <v>43430</v>
-      </c>
-      <c r="G29" s="33">
-        <v>10</v>
-      </c>
+      <c r="E29" s="31"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33"/>
       <c r="H29" s="26"/>
       <c r="I29" s="38" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -6483,10 +6596,10 @@
     <row r="30" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A30" s="14"/>
       <c r="B30" s="41" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D30" s="34"/>
       <c r="E30" s="31">
@@ -6496,7 +6609,7 @@
         <v>43430</v>
       </c>
       <c r="G30" s="33">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H30" s="26"/>
       <c r="I30" s="38" t="str">
@@ -6724,22 +6837,23 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1">
+    <row r="31" spans="1:64" s="2" customFormat="1" ht="44" customHeight="1">
       <c r="A31" s="14"/>
       <c r="B31" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="34"/>
+      <c r="E31" s="31">
         <v>0</v>
       </c>
-      <c r="C31" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="31"/>
       <c r="F31" s="32">
-        <f>F30+15</f>
-        <v>43445</v>
+        <v>43430</v>
       </c>
       <c r="G31" s="33">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H31" s="26"/>
       <c r="I31" s="38" t="str">
@@ -6966,22 +7080,23 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1">
+    <row r="32" spans="1:64" s="2" customFormat="1" ht="47" customHeight="1">
       <c r="A32" s="14"/>
       <c r="B32" s="41" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D32" s="34"/>
-      <c r="E32" s="31"/>
+      <c r="E32" s="31">
+        <v>0</v>
+      </c>
       <c r="F32" s="32">
-        <f>F22+22</f>
-        <v>43438</v>
+        <v>43430</v>
       </c>
       <c r="G32" s="33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H32" s="26"/>
       <c r="I32" s="38" t="str">
@@ -7128,17 +7243,17 @@
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
-      <c r="AS32" s="38">
+      <c r="AS32" s="38" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="AT32" s="38">
+        <v/>
+      </c>
+      <c r="AT32" s="38" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="AU32" s="38">
+        <v/>
+      </c>
+      <c r="AU32" s="38" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="AV32" s="38" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -7212,16 +7327,20 @@
     <row r="33" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A33" s="14"/>
       <c r="B33" s="41" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D33" s="34"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="32"/>
+      <c r="E33" s="31">
+        <v>0</v>
+      </c>
+      <c r="F33" s="32">
+        <v>43430</v>
+      </c>
       <c r="G33" s="33">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H33" s="26"/>
       <c r="I33" s="38" t="str">
@@ -7451,1439 +7570,418 @@
     </row>
     <row r="34" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A34" s="14"/>
-      <c r="B34" s="42" t="s">
-        <v>15</v>
+      <c r="B34" s="41" t="s">
+        <v>65</v>
       </c>
       <c r="C34" s="34"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="33"/>
+      <c r="E34" s="31">
+        <v>0</v>
+      </c>
+      <c r="F34" s="32">
+        <v>43430</v>
+      </c>
+      <c r="G34" s="33">
+        <v>0</v>
+      </c>
       <c r="H34" s="26"/>
-      <c r="I34" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="J34" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="K34" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="L34" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="M34" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="N34" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="O34" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="P34" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="Q34" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="R34" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="S34" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="T34" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="U34" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="V34" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="W34" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="X34" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="Y34" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="Z34" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AA34" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AB34" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AC34" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AD34" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AE34" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AF34" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AG34" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AH34" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AI34" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AJ34" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AK34" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AL34" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AM34" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AN34" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AO34" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AP34" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AQ34" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AR34" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AS34" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AT34" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AU34" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AV34" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AW34" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AX34" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AY34" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AZ34" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BA34" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BB34" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BC34" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BD34" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BE34" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BF34" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BG34" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BH34" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BI34" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BJ34" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BK34" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BL34" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="38"/>
+      <c r="W34" s="38"/>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="38"/>
+      <c r="Z34" s="38"/>
+      <c r="AA34" s="38"/>
+      <c r="AB34" s="38"/>
+      <c r="AC34" s="38"/>
+      <c r="AD34" s="38"/>
+      <c r="AE34" s="38"/>
+      <c r="AF34" s="38"/>
+      <c r="AG34" s="38"/>
+      <c r="AH34" s="38"/>
+      <c r="AI34" s="38"/>
+      <c r="AJ34" s="38"/>
+      <c r="AK34" s="38"/>
+      <c r="AL34" s="38"/>
+      <c r="AM34" s="38"/>
+      <c r="AN34" s="38"/>
+      <c r="AO34" s="38"/>
+      <c r="AP34" s="38"/>
+      <c r="AQ34" s="38"/>
+      <c r="AR34" s="38"/>
+      <c r="AS34" s="38"/>
+      <c r="AT34" s="38"/>
+      <c r="AU34" s="38"/>
+      <c r="AV34" s="38"/>
+      <c r="AW34" s="38"/>
+      <c r="AX34" s="38"/>
+      <c r="AY34" s="38"/>
+      <c r="AZ34" s="38"/>
+      <c r="BA34" s="38"/>
+      <c r="BB34" s="38"/>
+      <c r="BC34" s="38"/>
+      <c r="BD34" s="38"/>
+      <c r="BE34" s="38"/>
+      <c r="BF34" s="38"/>
+      <c r="BG34" s="38"/>
+      <c r="BH34" s="38"/>
+      <c r="BI34" s="38"/>
+      <c r="BJ34" s="38"/>
+      <c r="BK34" s="38"/>
+      <c r="BL34" s="38"/>
     </row>
     <row r="35" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A35" s="14"/>
       <c r="B35" s="41" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="C35" s="34"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="31"/>
+      <c r="E35" s="31">
+        <v>0</v>
+      </c>
       <c r="F35" s="32">
-        <f>F32+3</f>
-        <v>43441</v>
+        <v>43430</v>
       </c>
       <c r="G35" s="33">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H35" s="26"/>
-      <c r="I35" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="J35" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="K35" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="L35" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="M35" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="N35" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="O35" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="P35" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="Q35" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="R35" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="S35" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="T35" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="U35" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="V35" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="W35" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="X35" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="Y35" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="Z35" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AA35" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AB35" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AC35" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AD35" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AE35" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AF35" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AG35" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AH35" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AI35" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AJ35" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AK35" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AL35" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AM35" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AN35" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AO35" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AP35" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AQ35" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AR35" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AS35" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AT35" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AU35" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AV35" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AW35" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AX35" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AY35" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AZ35" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BA35" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BB35" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BC35" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BD35" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BE35" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BF35" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BG35" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BH35" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BI35" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BJ35" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BK35" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BL35" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="38"/>
+      <c r="U35" s="38"/>
+      <c r="V35" s="38"/>
+      <c r="W35" s="38"/>
+      <c r="X35" s="38"/>
+      <c r="Y35" s="38"/>
+      <c r="Z35" s="38"/>
+      <c r="AA35" s="38"/>
+      <c r="AB35" s="38"/>
+      <c r="AC35" s="38"/>
+      <c r="AD35" s="38"/>
+      <c r="AE35" s="38"/>
+      <c r="AF35" s="38"/>
+      <c r="AG35" s="38"/>
+      <c r="AH35" s="38"/>
+      <c r="AI35" s="38"/>
+      <c r="AJ35" s="38"/>
+      <c r="AK35" s="38"/>
+      <c r="AL35" s="38"/>
+      <c r="AM35" s="38"/>
+      <c r="AN35" s="38"/>
+      <c r="AO35" s="38"/>
+      <c r="AP35" s="38"/>
+      <c r="AQ35" s="38"/>
+      <c r="AR35" s="38"/>
+      <c r="AS35" s="38"/>
+      <c r="AT35" s="38"/>
+      <c r="AU35" s="38"/>
+      <c r="AV35" s="38"/>
+      <c r="AW35" s="38"/>
+      <c r="AX35" s="38"/>
+      <c r="AY35" s="38"/>
+      <c r="AZ35" s="38"/>
+      <c r="BA35" s="38"/>
+      <c r="BB35" s="38"/>
+      <c r="BC35" s="38"/>
+      <c r="BD35" s="38"/>
+      <c r="BE35" s="38"/>
+      <c r="BF35" s="38"/>
+      <c r="BG35" s="38"/>
+      <c r="BH35" s="38"/>
+      <c r="BI35" s="38"/>
+      <c r="BJ35" s="38"/>
+      <c r="BK35" s="38"/>
+      <c r="BL35" s="38"/>
     </row>
     <row r="36" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A36" s="14"/>
-      <c r="B36" s="41" t="s">
-        <v>4</v>
-      </c>
+      <c r="B36" s="41"/>
       <c r="C36" s="34"/>
       <c r="D36" s="34"/>
       <c r="E36" s="31"/>
-      <c r="F36" s="32">
-        <v>43288</v>
-      </c>
-      <c r="G36" s="33">
-        <v>5</v>
-      </c>
+      <c r="F36" s="32"/>
+      <c r="G36" s="33"/>
       <c r="H36" s="26"/>
-      <c r="I36" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="J36" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="K36" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="L36" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="M36" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="N36" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="O36" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="P36" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="Q36" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="R36" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="S36" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="T36" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="U36" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="V36" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="W36" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="X36" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="Y36" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="Z36" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AA36" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AB36" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AC36" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AD36" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AE36" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AF36" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AG36" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AH36" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AI36" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AJ36" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AK36" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AL36" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AM36" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AN36" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AO36" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AP36" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AQ36" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AR36" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AS36" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AT36" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AU36" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AV36" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AW36" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AX36" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AY36" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AZ36" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BA36" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BB36" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BC36" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BD36" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BE36" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BF36" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BG36" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BH36" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BI36" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BJ36" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BK36" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BL36" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="38"/>
+      <c r="U36" s="38"/>
+      <c r="V36" s="38"/>
+      <c r="W36" s="38"/>
+      <c r="X36" s="38"/>
+      <c r="Y36" s="38"/>
+      <c r="Z36" s="38"/>
+      <c r="AA36" s="38"/>
+      <c r="AB36" s="38"/>
+      <c r="AC36" s="38"/>
+      <c r="AD36" s="38"/>
+      <c r="AE36" s="38"/>
+      <c r="AF36" s="38"/>
+      <c r="AG36" s="38"/>
+      <c r="AH36" s="38"/>
+      <c r="AI36" s="38"/>
+      <c r="AJ36" s="38"/>
+      <c r="AK36" s="38"/>
+      <c r="AL36" s="38"/>
+      <c r="AM36" s="38"/>
+      <c r="AN36" s="38"/>
+      <c r="AO36" s="38"/>
+      <c r="AP36" s="38"/>
+      <c r="AQ36" s="38"/>
+      <c r="AR36" s="38"/>
+      <c r="AS36" s="38"/>
+      <c r="AT36" s="38"/>
+      <c r="AU36" s="38"/>
+      <c r="AV36" s="38"/>
+      <c r="AW36" s="38"/>
+      <c r="AX36" s="38"/>
+      <c r="AY36" s="38"/>
+      <c r="AZ36" s="38"/>
+      <c r="BA36" s="38"/>
+      <c r="BB36" s="38"/>
+      <c r="BC36" s="38"/>
+      <c r="BD36" s="38"/>
+      <c r="BE36" s="38"/>
+      <c r="BF36" s="38"/>
+      <c r="BG36" s="38"/>
+      <c r="BH36" s="38"/>
+      <c r="BI36" s="38"/>
+      <c r="BJ36" s="38"/>
+      <c r="BK36" s="38"/>
+      <c r="BL36" s="38"/>
     </row>
     <row r="37" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A37" s="14"/>
-      <c r="B37" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>11</v>
-      </c>
+      <c r="B37" s="41"/>
+      <c r="C37" s="34"/>
       <c r="D37" s="34"/>
       <c r="E37" s="31"/>
-      <c r="F37" s="32">
-        <v>43306</v>
-      </c>
-      <c r="G37" s="33">
-        <v>1</v>
-      </c>
+      <c r="F37" s="32"/>
+      <c r="G37" s="33"/>
       <c r="H37" s="26"/>
-      <c r="I37" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="J37" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="K37" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="L37" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="M37" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="N37" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="O37" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="P37" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="Q37" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="R37" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="S37" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="T37" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="U37" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="V37" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="W37" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="X37" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="Y37" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="Z37" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AA37" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AB37" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AC37" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AD37" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AE37" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AF37" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AG37" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AH37" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AI37" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AJ37" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AK37" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AL37" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AM37" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AN37" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AO37" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AP37" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AQ37" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AR37" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AS37" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AT37" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AU37" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AV37" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AW37" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AX37" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AY37" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AZ37" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BA37" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BB37" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BC37" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BD37" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BE37" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BF37" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BG37" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BH37" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BI37" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BJ37" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BK37" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BL37" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="38"/>
+      <c r="R37" s="38"/>
+      <c r="S37" s="38"/>
+      <c r="T37" s="38"/>
+      <c r="U37" s="38"/>
+      <c r="V37" s="38"/>
+      <c r="W37" s="38"/>
+      <c r="X37" s="38"/>
+      <c r="Y37" s="38"/>
+      <c r="Z37" s="38"/>
+      <c r="AA37" s="38"/>
+      <c r="AB37" s="38"/>
+      <c r="AC37" s="38"/>
+      <c r="AD37" s="38"/>
+      <c r="AE37" s="38"/>
+      <c r="AF37" s="38"/>
+      <c r="AG37" s="38"/>
+      <c r="AH37" s="38"/>
+      <c r="AI37" s="38"/>
+      <c r="AJ37" s="38"/>
+      <c r="AK37" s="38"/>
+      <c r="AL37" s="38"/>
+      <c r="AM37" s="38"/>
+      <c r="AN37" s="38"/>
+      <c r="AO37" s="38"/>
+      <c r="AP37" s="38"/>
+      <c r="AQ37" s="38"/>
+      <c r="AR37" s="38"/>
+      <c r="AS37" s="38"/>
+      <c r="AT37" s="38"/>
+      <c r="AU37" s="38"/>
+      <c r="AV37" s="38"/>
+      <c r="AW37" s="38"/>
+      <c r="AX37" s="38"/>
+      <c r="AY37" s="38"/>
+      <c r="AZ37" s="38"/>
+      <c r="BA37" s="38"/>
+      <c r="BB37" s="38"/>
+      <c r="BC37" s="38"/>
+      <c r="BD37" s="38"/>
+      <c r="BE37" s="38"/>
+      <c r="BF37" s="38"/>
+      <c r="BG37" s="38"/>
+      <c r="BH37" s="38"/>
+      <c r="BI37" s="38"/>
+      <c r="BJ37" s="38"/>
+      <c r="BK37" s="38"/>
+      <c r="BL37" s="38"/>
     </row>
     <row r="38" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A38" s="14"/>
-      <c r="B38" s="41" t="s">
-        <v>1</v>
-      </c>
+      <c r="B38" s="41"/>
       <c r="C38" s="34"/>
       <c r="D38" s="34"/>
       <c r="E38" s="31"/>
       <c r="F38" s="32"/>
       <c r="G38" s="33"/>
       <c r="H38" s="26"/>
-      <c r="I38" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="J38" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="K38" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="L38" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="M38" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="N38" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="O38" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="P38" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="Q38" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="R38" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="S38" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="T38" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="U38" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="V38" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="W38" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="X38" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="Y38" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="Z38" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AA38" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AB38" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AC38" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AD38" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AE38" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AF38" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AG38" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AH38" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AI38" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AJ38" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AK38" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AL38" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AM38" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AN38" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AO38" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AP38" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AQ38" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AR38" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AS38" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AT38" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AU38" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AV38" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AW38" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AX38" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AY38" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AZ38" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BA38" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BB38" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BC38" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BD38" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BE38" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BF38" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BG38" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BH38" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BI38" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BJ38" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BK38" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BL38" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="38"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="38"/>
+      <c r="U38" s="38"/>
+      <c r="V38" s="38"/>
+      <c r="W38" s="38"/>
+      <c r="X38" s="38"/>
+      <c r="Y38" s="38"/>
+      <c r="Z38" s="38"/>
+      <c r="AA38" s="38"/>
+      <c r="AB38" s="38"/>
+      <c r="AC38" s="38"/>
+      <c r="AD38" s="38"/>
+      <c r="AE38" s="38"/>
+      <c r="AF38" s="38"/>
+      <c r="AG38" s="38"/>
+      <c r="AH38" s="38"/>
+      <c r="AI38" s="38"/>
+      <c r="AJ38" s="38"/>
+      <c r="AK38" s="38"/>
+      <c r="AL38" s="38"/>
+      <c r="AM38" s="38"/>
+      <c r="AN38" s="38"/>
+      <c r="AO38" s="38"/>
+      <c r="AP38" s="38"/>
+      <c r="AQ38" s="38"/>
+      <c r="AR38" s="38"/>
+      <c r="AS38" s="38"/>
+      <c r="AT38" s="38"/>
+      <c r="AU38" s="38"/>
+      <c r="AV38" s="38"/>
+      <c r="AW38" s="38"/>
+      <c r="AX38" s="38"/>
+      <c r="AY38" s="38"/>
+      <c r="AZ38" s="38"/>
+      <c r="BA38" s="38"/>
+      <c r="BB38" s="38"/>
+      <c r="BC38" s="38"/>
+      <c r="BD38" s="38"/>
+      <c r="BE38" s="38"/>
+      <c r="BF38" s="38"/>
+      <c r="BG38" s="38"/>
+      <c r="BH38" s="38"/>
+      <c r="BI38" s="38"/>
+      <c r="BJ38" s="38"/>
+      <c r="BK38" s="38"/>
+      <c r="BL38" s="38"/>
     </row>
     <row r="39" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A39" s="14"/>
-      <c r="B39" s="41" t="s">
-        <v>2</v>
-      </c>
+      <c r="B39" s="41"/>
       <c r="C39" s="34"/>
       <c r="D39" s="34"/>
       <c r="E39" s="31"/>
       <c r="F39" s="32"/>
       <c r="G39" s="33"/>
       <c r="H39" s="26"/>
-      <c r="I39" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="J39" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="K39" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="L39" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="M39" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="N39" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="O39" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="P39" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="Q39" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="R39" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="S39" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="T39" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="U39" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="V39" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="W39" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="X39" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="Y39" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="Z39" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AA39" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AB39" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AC39" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AD39" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AE39" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AF39" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AG39" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AH39" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AI39" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AJ39" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AK39" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AL39" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AM39" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AN39" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AO39" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AP39" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AQ39" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AR39" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AS39" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AT39" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AU39" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AV39" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AW39" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AX39" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AY39" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AZ39" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BA39" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BB39" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BC39" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BD39" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BE39" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BF39" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BG39" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BH39" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BI39" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BJ39" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BK39" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BL39" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="38"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="38"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="38"/>
+      <c r="Y39" s="38"/>
+      <c r="Z39" s="38"/>
+      <c r="AA39" s="38"/>
+      <c r="AB39" s="38"/>
+      <c r="AC39" s="38"/>
+      <c r="AD39" s="38"/>
+      <c r="AE39" s="38"/>
+      <c r="AF39" s="38"/>
+      <c r="AG39" s="38"/>
+      <c r="AH39" s="38"/>
+      <c r="AI39" s="38"/>
+      <c r="AJ39" s="38"/>
+      <c r="AK39" s="38"/>
+      <c r="AL39" s="38"/>
+      <c r="AM39" s="38"/>
+      <c r="AN39" s="38"/>
+      <c r="AO39" s="38"/>
+      <c r="AP39" s="38"/>
+      <c r="AQ39" s="38"/>
+      <c r="AR39" s="38"/>
+      <c r="AS39" s="38"/>
+      <c r="AT39" s="38"/>
+      <c r="AU39" s="38"/>
+      <c r="AV39" s="38"/>
+      <c r="AW39" s="38"/>
+      <c r="AX39" s="38"/>
+      <c r="AY39" s="38"/>
+      <c r="AZ39" s="38"/>
+      <c r="BA39" s="38"/>
+      <c r="BB39" s="38"/>
+      <c r="BC39" s="38"/>
+      <c r="BD39" s="38"/>
+      <c r="BE39" s="38"/>
+      <c r="BF39" s="38"/>
+      <c r="BG39" s="38"/>
+      <c r="BH39" s="38"/>
+      <c r="BI39" s="38"/>
+      <c r="BJ39" s="38"/>
+      <c r="BK39" s="38"/>
+      <c r="BL39" s="38"/>
     </row>
     <row r="40" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="A40" s="14" t="s">
-        <v>7</v>
-      </c>
+      <c r="A40" s="14"/>
       <c r="B40" s="41"/>
       <c r="C40" s="34"/>
       <c r="D40" s="34"/>
@@ -8891,238 +7989,66 @@
       <c r="F40" s="32"/>
       <c r="G40" s="33"/>
       <c r="H40" s="26"/>
-      <c r="I40" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="J40" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="K40" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="L40" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="M40" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="N40" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="O40" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="P40" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="Q40" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="R40" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="S40" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="T40" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="U40" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="V40" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="W40" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="X40" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="Y40" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="Z40" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AA40" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AB40" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AC40" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AD40" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AE40" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AF40" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AG40" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AH40" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AI40" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AJ40" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AK40" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AL40" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AM40" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AN40" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AO40" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AP40" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AQ40" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AR40" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AS40" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AT40" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AU40" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AV40" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AW40" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AX40" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AY40" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AZ40" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BA40" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BB40" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BC40" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BD40" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BE40" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BF40" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BG40" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BH40" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BI40" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BJ40" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BK40" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BL40" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="38"/>
+      <c r="R40" s="38"/>
+      <c r="S40" s="38"/>
+      <c r="T40" s="38"/>
+      <c r="U40" s="38"/>
+      <c r="V40" s="38"/>
+      <c r="W40" s="38"/>
+      <c r="X40" s="38"/>
+      <c r="Y40" s="38"/>
+      <c r="Z40" s="38"/>
+      <c r="AA40" s="38"/>
+      <c r="AB40" s="38"/>
+      <c r="AC40" s="38"/>
+      <c r="AD40" s="38"/>
+      <c r="AE40" s="38"/>
+      <c r="AF40" s="38"/>
+      <c r="AG40" s="38"/>
+      <c r="AH40" s="38"/>
+      <c r="AI40" s="38"/>
+      <c r="AJ40" s="38"/>
+      <c r="AK40" s="38"/>
+      <c r="AL40" s="38"/>
+      <c r="AM40" s="38"/>
+      <c r="AN40" s="38"/>
+      <c r="AO40" s="38"/>
+      <c r="AP40" s="38"/>
+      <c r="AQ40" s="38"/>
+      <c r="AR40" s="38"/>
+      <c r="AS40" s="38"/>
+      <c r="AT40" s="38"/>
+      <c r="AU40" s="38"/>
+      <c r="AV40" s="38"/>
+      <c r="AW40" s="38"/>
+      <c r="AX40" s="38"/>
+      <c r="AY40" s="38"/>
+      <c r="AZ40" s="38"/>
+      <c r="BA40" s="38"/>
+      <c r="BB40" s="38"/>
+      <c r="BC40" s="38"/>
+      <c r="BD40" s="38"/>
+      <c r="BE40" s="38"/>
+      <c r="BF40" s="38"/>
+      <c r="BG40" s="38"/>
+      <c r="BH40" s="38"/>
+      <c r="BI40" s="38"/>
+      <c r="BJ40" s="38"/>
+      <c r="BK40" s="38"/>
+      <c r="BL40" s="38"/>
     </row>
     <row r="41" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A41" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>23</v>
-      </c>
+      <c r="A41" s="15"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="24"/>
       <c r="D41" s="24"/>
       <c r="E41" s="24"/>
@@ -9206,8 +8132,8 @@
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="S2:V2"/>
   </mergeCells>
-  <conditionalFormatting sqref="E7:E40">
-    <cfRule type="dataBar" priority="8">
+  <conditionalFormatting sqref="E7:E27 E29:E40">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9220,58 +8146,94 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL41">
-    <cfRule type="expression" dxfId="16" priority="1">
+  <conditionalFormatting sqref="I5:BL27 I29:BL41">
+    <cfRule type="expression" dxfId="19" priority="9">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:AM4">
-    <cfRule type="expression" dxfId="15" priority="7">
+    <cfRule type="expression" dxfId="18" priority="15">
       <formula>I$5&lt;=EOMONTH($I$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:BL4">
-    <cfRule type="expression" dxfId="14" priority="3">
+    <cfRule type="expression" dxfId="17" priority="11">
       <formula>AND(J$5&lt;=EOMONTH($I$5,2),J$5&gt;EOMONTH($I$5,0),J$5&gt;EOMONTH($I$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:BL4">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="16" priority="10">
       <formula>AND(I$5&lt;=EOMONTH($I$5,1),I$5&gt;EOMONTH($I$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:BL40">
-    <cfRule type="expression" dxfId="12" priority="24" stopIfTrue="1">
+  <conditionalFormatting sqref="I8:BL27 I29:BL40">
+    <cfRule type="expression" dxfId="15" priority="32" stopIfTrue="1">
       <formula>AND($C8="Low Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="51" stopIfTrue="1">
       <formula>AND($C8="High Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="69" stopIfTrue="1">
       <formula>AND($C8="On Track",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="70" stopIfTrue="1">
       <formula>AND($C8="Med Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="71" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="7" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="79" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="80" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="81" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="82" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="83" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28:BL28">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{563D923F-4E18-AB4A-A5F1-541248A195EE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28:BL28">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+      <formula>AND($C28="Low Risk",I$5&gt;=$F28,I$5&lt;=$F28+$G28-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+      <formula>AND($C28="High Risk",I$5&gt;=$F28,I$5&lt;=$F28+$G28-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
+      <formula>AND($C28="On Track",I$5&gt;=$F28,I$5&lt;=$F28+$G28-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+      <formula>AND($C28="Med Risk",I$5&gt;=$F28,I$5&lt;=$F28+$G28-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
+      <formula>AND(LEN($C28)=0,I$5&gt;=$F28,I$5&lt;=$F28+$G28-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="3">
@@ -9340,29 +8302,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E7:E40</xm:sqref>
+          <xm:sqref>E7:E27 E29:E40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="9" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I8:BL40</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="70" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+          <x14:cfRule type="iconSet" priority="78" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9379,6 +8322,59 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>I41:BL41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{563D923F-4E18-AB4A-A5F1-541248A195EE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{F7EBCD44-F536-1F4E-8AAF-753A97D42686}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I28:BL28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="98" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I8:BL27 I29:BL40</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -9402,27 +8398,27 @@
   <sheetData>
     <row r="1" spans="1:1" s="9" customFormat="1" ht="26">
       <c r="A1" s="11" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="84.5" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="26.25" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="10" customFormat="1" ht="205" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
